--- a/apps/pczone/test/support/data/shopee-simple-built-variants.xlsx
+++ b/apps/pczone/test/support/data/shopee-simple-built-variants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achilles/Projects/pczone_umbrella/apps/pc_zone/test/support/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achilles/Projects/pczone_umbrella/apps/pczone/test/support/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD42738C-B7CA-2E4D-B302-5E0978B9CC05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D352DDB-25C6-5040-8DC2-68EC8106A022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,16 +61,16 @@
     <t>x4</t>
   </si>
   <si>
-    <t>i5-6500T; Không RAM, 256GB NVMe 95%</t>
-  </si>
-  <si>
-    <t>i5-6500T; Không RAM, 256GB NVMe</t>
-  </si>
-  <si>
-    <t>i5-6500;, Không RAM, 512GB NVMe</t>
-  </si>
-  <si>
-    <t>i5-6500T; Không RAM, Không SSD</t>
+    <t>i5-6500T; Ko RAM, 256GB NVMe 95%</t>
+  </si>
+  <si>
+    <t>i5-6500T; Ko RAM, 256GB NVMe</t>
+  </si>
+  <si>
+    <t>i5-6500;, Ko RAM, 512GB NVMe</t>
+  </si>
+  <si>
+    <t>i5-6500T; Ko RAM, Ko SSD</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
